--- a/Code/Results/Cases/Case_1_251/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_251/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.4210696122603</v>
+        <v>17.4275895051743</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.606646811683701</v>
+        <v>11.32734066696509</v>
       </c>
       <c r="E2">
-        <v>10.98019975423809</v>
+        <v>17.00080769389358</v>
       </c>
       <c r="F2">
-        <v>20.03468399738595</v>
+        <v>28.5233174388284</v>
       </c>
       <c r="G2">
-        <v>25.30789193687512</v>
+        <v>27.01840733239952</v>
       </c>
       <c r="H2">
-        <v>8.564030937652953</v>
+        <v>13.60205378025839</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.664074983978704</v>
+        <v>11.6778316495898</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.8553233096888</v>
+        <v>9.665761702194773</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.13639194663742</v>
+        <v>18.54029730951016</v>
       </c>
       <c r="O2">
-        <v>14.77120256533099</v>
+        <v>20.51747094201325</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.42383448125949</v>
+        <v>17.1649787209316</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.6880602107736</v>
+        <v>11.36427016680427</v>
       </c>
       <c r="E3">
-        <v>11.06423191217811</v>
+        <v>17.04599987502433</v>
       </c>
       <c r="F3">
-        <v>19.56647950025705</v>
+        <v>28.55345043556826</v>
       </c>
       <c r="G3">
-        <v>24.0683044572092</v>
+        <v>26.84349132782589</v>
       </c>
       <c r="H3">
-        <v>8.459999575931892</v>
+        <v>13.62599220362843</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.684233288480109</v>
+        <v>11.69536130478433</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.20869705649014</v>
+        <v>9.46871605199385</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.08565369327598</v>
+        <v>18.5504606241572</v>
       </c>
       <c r="O3">
-        <v>14.36137262277104</v>
+        <v>20.51796135505335</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.78314147750086</v>
+        <v>17.00390510434852</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.740368379891233</v>
+        <v>11.38823644595932</v>
       </c>
       <c r="E4">
-        <v>11.11914802560455</v>
+        <v>17.07560895068356</v>
       </c>
       <c r="F4">
-        <v>19.29236476899919</v>
+        <v>28.57944086727698</v>
       </c>
       <c r="G4">
-        <v>23.29850160302562</v>
+        <v>26.74506099223404</v>
       </c>
       <c r="H4">
-        <v>8.401598345788134</v>
+        <v>13.6432250756967</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.698219084899602</v>
+        <v>11.70703718188797</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.789631001970134</v>
+        <v>9.346050066575051</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.05881782645094</v>
+        <v>18.55887279423295</v>
       </c>
       <c r="O4">
-        <v>14.11658016700288</v>
+        <v>20.52338024046288</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.515115974277</v>
+        <v>16.93838450939826</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.762266453048747</v>
+        <v>11.3983284394207</v>
       </c>
       <c r="E5">
-        <v>11.14236099842154</v>
+        <v>17.08814404619137</v>
       </c>
       <c r="F5">
-        <v>19.18410853629331</v>
+        <v>28.59191248382509</v>
       </c>
       <c r="G5">
-        <v>22.98309844986156</v>
+        <v>26.70724565593234</v>
       </c>
       <c r="H5">
-        <v>8.379164590561922</v>
+        <v>13.65088447337963</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.704323140035189</v>
+        <v>11.71202536339589</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.613361339578606</v>
+        <v>9.295699606535855</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.04895678758155</v>
+        <v>18.56284862657058</v>
       </c>
       <c r="O5">
-        <v>14.01865943417377</v>
+        <v>20.52687568823455</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.47019827192876</v>
+        <v>16.92751421565312</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.765937734296605</v>
+        <v>11.40002389272802</v>
       </c>
       <c r="E6">
-        <v>11.14626586221729</v>
+        <v>17.09025386103807</v>
       </c>
       <c r="F6">
-        <v>19.16634321326402</v>
+        <v>28.59409685327237</v>
       </c>
       <c r="G6">
-        <v>22.93063859053951</v>
+        <v>26.70110620556705</v>
       </c>
       <c r="H6">
-        <v>8.375521534695281</v>
+        <v>13.65219475910011</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.705361164849971</v>
+        <v>11.71286756875585</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.583761485095813</v>
+        <v>9.28731879378906</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.04738395436499</v>
+        <v>18.56354194391111</v>
       </c>
       <c r="O6">
-        <v>14.00251380379369</v>
+        <v>20.52753384223137</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.77955458499216</v>
+        <v>17.00302089216504</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.740661349681601</v>
+        <v>11.38837123093514</v>
       </c>
       <c r="E7">
-        <v>11.11945770693306</v>
+        <v>17.07577610213974</v>
       </c>
       <c r="F7">
-        <v>19.29089072147886</v>
+        <v>28.57960145492673</v>
       </c>
       <c r="G7">
-        <v>23.29425417122695</v>
+        <v>26.74454165551445</v>
       </c>
       <c r="H7">
-        <v>8.401290286277527</v>
+        <v>13.64332579511222</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.698299767274977</v>
+        <v>11.70710352140107</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.787275955134781</v>
+        <v>9.345372412969461</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.05868050004324</v>
+        <v>18.55892419350621</v>
       </c>
       <c r="O7">
-        <v>14.11525199959413</v>
+        <v>20.52342216964037</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.08322099686876</v>
+        <v>17.33705093696186</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.634235753221877</v>
+        <v>11.33980640884211</v>
       </c>
       <c r="E8">
-        <v>11.00848456624884</v>
+        <v>17.01600446346682</v>
       </c>
       <c r="F8">
-        <v>19.87052881558915</v>
+        <v>28.532151620213</v>
       </c>
       <c r="G8">
-        <v>24.8825554279548</v>
+        <v>26.9562605300328</v>
       </c>
       <c r="H8">
-        <v>8.527018937689704</v>
+        <v>13.60978144133725</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.670691888043504</v>
+        <v>11.68368687781129</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.63696186691128</v>
+        <v>9.598203666226123</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.11799486666407</v>
+        <v>18.54335187780221</v>
       </c>
       <c r="O8">
-        <v>14.62854077240084</v>
+        <v>20.51657825589448</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.40779676981829</v>
+        <v>17.99016640742034</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.444016975341473</v>
+        <v>11.25478114118827</v>
       </c>
       <c r="E9">
-        <v>10.81724095661236</v>
+        <v>16.91350304279526</v>
       </c>
       <c r="F9">
-        <v>21.10897235280225</v>
+        <v>28.49860848559365</v>
       </c>
       <c r="G9">
-        <v>27.91043714285799</v>
+        <v>27.44060564571211</v>
       </c>
       <c r="H9">
-        <v>8.817356198263973</v>
+        <v>13.56412946549811</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.629302944901344</v>
+        <v>11.64497755375389</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.12711794675319</v>
+        <v>10.07820279194218</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.26903875609354</v>
+        <v>18.52997211758415</v>
       </c>
       <c r="O9">
-        <v>15.68446370594219</v>
+        <v>20.54371878862171</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.96778935265563</v>
+        <v>18.46455649828667</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.315657105748003</v>
+        <v>11.19848627637612</v>
       </c>
       <c r="E10">
-        <v>10.69286146351914</v>
+        <v>16.84708780983672</v>
       </c>
       <c r="F10">
-        <v>22.07490094807871</v>
+        <v>28.51030379400151</v>
       </c>
       <c r="G10">
-        <v>30.06294667505391</v>
+        <v>27.83565611320465</v>
       </c>
       <c r="H10">
-        <v>9.057642927796996</v>
+        <v>13.54287810269518</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.606647859036811</v>
+        <v>11.62089235336695</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.11373038222116</v>
+        <v>10.41809276738021</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.4018035770437</v>
+        <v>18.53049823749163</v>
       </c>
       <c r="O10">
-        <v>16.48401472963974</v>
+        <v>20.58827670625683</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.64455206772411</v>
+        <v>18.67831317720285</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.259775267254149</v>
+        <v>11.17420588765245</v>
       </c>
       <c r="E11">
-        <v>10.63979320767983</v>
+        <v>16.81878874806796</v>
       </c>
       <c r="F11">
-        <v>22.52522455186095</v>
+        <v>28.52350810382923</v>
       </c>
       <c r="G11">
-        <v>31.02371663817743</v>
+        <v>28.02318237321708</v>
       </c>
       <c r="H11">
-        <v>9.17282652717974</v>
+        <v>13.53588003811813</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.598020010702035</v>
+        <v>11.61087212597995</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.53906386436135</v>
+        <v>10.5693406618905</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.46705723287507</v>
+        <v>18.53296260289112</v>
       </c>
       <c r="O11">
-        <v>16.85171161404452</v>
+        <v>20.61385206297208</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.89605545982904</v>
+        <v>18.7588935436062</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.238979433958349</v>
+        <v>11.16520175054263</v>
       </c>
       <c r="E12">
-        <v>10.62020421555027</v>
+        <v>16.80834655694299</v>
       </c>
       <c r="F12">
-        <v>22.69721990693286</v>
+        <v>28.52963955117063</v>
       </c>
       <c r="G12">
-        <v>31.38472516211205</v>
+        <v>28.09525422848051</v>
       </c>
       <c r="H12">
-        <v>9.217286820024102</v>
+        <v>13.53361372548845</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.594993674542777</v>
+        <v>11.60721164577952</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.69675702467008</v>
+        <v>10.62608340214866</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.49247476088183</v>
+        <v>18.53421355650161</v>
       </c>
       <c r="O12">
-        <v>16.99143353111702</v>
+        <v>20.62429484893795</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.84210243715664</v>
+        <v>18.74155642948687</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.243441856985593</v>
+        <v>11.16713249925907</v>
       </c>
       <c r="E13">
-        <v>10.62440048616776</v>
+        <v>16.81058329896128</v>
       </c>
       <c r="F13">
-        <v>22.66011389355215</v>
+        <v>28.52826877155088</v>
       </c>
       <c r="G13">
-        <v>31.30710278474202</v>
+        <v>28.07968617879859</v>
       </c>
       <c r="H13">
-        <v>9.207674060239523</v>
+        <v>13.53408475500343</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.595634746383749</v>
+        <v>11.60799404834154</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.6629447845229</v>
+        <v>10.61388719312334</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.48696904461001</v>
+        <v>18.53393004530544</v>
       </c>
       <c r="O13">
-        <v>16.96132171570873</v>
+        <v>20.62201218679897</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.66533922415858</v>
+        <v>18.68495027407613</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.25805702962036</v>
+        <v>11.17346130161638</v>
       </c>
       <c r="E14">
-        <v>10.63817144198626</v>
+        <v>16.81792417674481</v>
       </c>
       <c r="F14">
-        <v>22.53934585568412</v>
+        <v>28.52398988737556</v>
       </c>
       <c r="G14">
-        <v>31.05347419803799</v>
+        <v>28.02909090516587</v>
       </c>
       <c r="H14">
-        <v>9.176467426990543</v>
+        <v>13.53568589857474</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.597766208132406</v>
+        <v>11.61056829510192</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.55210489430291</v>
+        <v>10.57401983225559</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.4691341222455</v>
+        <v>18.53305916435218</v>
       </c>
       <c r="O14">
-        <v>16.86319740416489</v>
+        <v>20.61469603847116</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.55644422781513</v>
+        <v>18.65022783833053</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.267056978715563</v>
+        <v>11.17736264012</v>
       </c>
       <c r="E15">
-        <v>10.64667260459239</v>
+        <v>16.82245633258778</v>
       </c>
       <c r="F15">
-        <v>22.46556017821443</v>
+        <v>28.52151617987634</v>
       </c>
       <c r="G15">
-        <v>30.89774881485328</v>
+        <v>27.99823590379339</v>
       </c>
       <c r="H15">
-        <v>9.157462138478476</v>
+        <v>13.5367166079549</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.599103140502857</v>
+        <v>11.61216252155191</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.48377345313011</v>
+        <v>10.54952935825072</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.45830209360291</v>
+        <v>18.53256703819739</v>
       </c>
       <c r="O15">
-        <v>16.80315391189916</v>
+        <v>20.6103132310376</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.92289548106324</v>
+        <v>18.45053974264261</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.319359985482191</v>
+        <v>11.2000997276158</v>
       </c>
       <c r="E16">
-        <v>10.69640042212748</v>
+        <v>16.84897563007442</v>
       </c>
       <c r="F16">
-        <v>22.04568199250723</v>
+        <v>28.50959932303736</v>
       </c>
       <c r="G16">
-        <v>29.99977215323349</v>
+        <v>27.82355267315651</v>
       </c>
       <c r="H16">
-        <v>9.050233479175501</v>
+        <v>13.54338914725278</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.607245437667945</v>
+        <v>11.62156598136981</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.08546165008671</v>
+        <v>10.40813646434654</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.39763761666305</v>
+        <v>18.53038177248665</v>
       </c>
       <c r="O16">
-        <v>16.46005704049167</v>
+        <v>20.58671165339164</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.52577456354437</v>
+        <v>18.32746257536861</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.352091956122502</v>
+        <v>11.21438793089684</v>
       </c>
       <c r="E17">
-        <v>10.72780763737217</v>
+        <v>16.86573367127978</v>
       </c>
       <c r="F17">
-        <v>21.79082124452295</v>
+        <v>28.50430660360135</v>
       </c>
       <c r="G17">
-        <v>29.44404110323997</v>
+        <v>27.71834709140562</v>
       </c>
       <c r="H17">
-        <v>8.985955867713994</v>
+        <v>13.54816615261362</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.612669950605894</v>
+        <v>11.62757401990328</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.83509800839676</v>
+        <v>10.32049898686526</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.36167261153755</v>
+        <v>18.52960952885343</v>
       </c>
       <c r="O17">
-        <v>16.25052996109564</v>
+        <v>20.57358848959601</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.29426706710349</v>
+        <v>18.25648333403567</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.371154431778818</v>
+        <v>11.22273120721922</v>
       </c>
       <c r="E18">
-        <v>10.74620274697357</v>
+        <v>16.87555263323329</v>
       </c>
       <c r="F18">
-        <v>21.6452654313636</v>
+        <v>28.50200467026206</v>
       </c>
       <c r="G18">
-        <v>29.1226722929342</v>
+        <v>27.65857529203359</v>
       </c>
       <c r="H18">
-        <v>8.949538369382303</v>
+        <v>13.55116502341684</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.615947964648044</v>
+        <v>11.63111784923968</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.68888458062749</v>
+        <v>10.26977765851051</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.34144327865212</v>
+        <v>18.52937492323099</v>
       </c>
       <c r="O18">
-        <v>16.13039449283502</v>
+        <v>20.56654014840739</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.21535281071647</v>
+        <v>18.23242079874764</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.377649051408494</v>
+        <v>11.22557760145318</v>
       </c>
       <c r="E19">
-        <v>10.75248773174431</v>
+        <v>16.87890814528041</v>
       </c>
       <c r="F19">
-        <v>21.59616346665933</v>
+        <v>28.5013528231508</v>
       </c>
       <c r="G19">
-        <v>29.01357161199002</v>
+        <v>27.63846654303325</v>
       </c>
       <c r="H19">
-        <v>8.937303109918336</v>
+        <v>13.55222354604267</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.617084990070722</v>
+        <v>11.63233289166993</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.63899943803553</v>
+        <v>10.25255174447241</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.33467215400167</v>
+        <v>18.52933154897035</v>
       </c>
       <c r="O19">
-        <v>16.08978667403065</v>
+        <v>20.56423967305969</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.56836935394469</v>
+        <v>18.34058437940667</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.348583135735584</v>
+        <v>11.21285398713978</v>
       </c>
       <c r="E20">
-        <v>10.72443006746699</v>
+        <v>16.86393110936858</v>
       </c>
       <c r="F20">
-        <v>21.81784542740396</v>
+        <v>28.50479321186693</v>
       </c>
       <c r="G20">
-        <v>29.50337972371286</v>
+        <v>27.72947030970801</v>
       </c>
       <c r="H20">
-        <v>8.99274107982701</v>
+        <v>13.54763162789635</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.612076155070381</v>
+        <v>11.62692533409749</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.86197844315405</v>
+        <v>10.32986105313875</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.36545380728101</v>
+        <v>18.52967006161328</v>
       </c>
       <c r="O20">
-        <v>16.27279593611473</v>
+        <v>20.57493378346542</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.71738862974896</v>
+        <v>18.7015873180344</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.253754242283301</v>
+        <v>11.17159721934211</v>
       </c>
       <c r="E21">
-        <v>10.63411280944664</v>
+        <v>16.81576055425536</v>
       </c>
       <c r="F21">
-        <v>22.57477929818577</v>
+        <v>28.5252160221142</v>
       </c>
       <c r="G21">
-        <v>31.12804851009499</v>
+        <v>28.0439237253416</v>
       </c>
       <c r="H21">
-        <v>9.185610720154578</v>
+        <v>13.53520519217154</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.597133613609739</v>
+        <v>11.60980854606621</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.58475268722326</v>
+        <v>10.58574462746939</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.47435340500457</v>
+        <v>18.53330635755903</v>
       </c>
       <c r="O21">
-        <v>16.89200642999998</v>
+        <v>20.61682444209762</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.44051646292716</v>
+        <v>18.93536752237105</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.193910616625655</v>
+        <v>11.14574253965604</v>
       </c>
       <c r="E22">
-        <v>10.57804023309407</v>
+        <v>16.78587516685245</v>
       </c>
       <c r="F22">
-        <v>23.0779928937176</v>
+        <v>28.54515547617995</v>
       </c>
       <c r="G22">
-        <v>32.17341807386605</v>
+        <v>28.25558287057135</v>
       </c>
       <c r="H22">
-        <v>9.316573104968706</v>
+        <v>13.52932013801643</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.588771375504654</v>
+        <v>11.59940225977198</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>14.0374824472557</v>
+        <v>10.74986147652188</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.54965259020878</v>
+        <v>18.53753389660671</v>
       </c>
       <c r="O22">
-        <v>17.29947973970375</v>
+        <v>20.64861741460547</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.05712507995463</v>
+        <v>18.81081444485923</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.225653459699245</v>
+        <v>11.15944042653338</v>
       </c>
       <c r="E23">
-        <v>10.60769623084284</v>
+        <v>16.80167981610674</v>
       </c>
       <c r="F23">
-        <v>22.80867073771601</v>
+        <v>28.53391133574815</v>
       </c>
       <c r="G23">
-        <v>31.61703131799611</v>
+        <v>28.14207583512299</v>
       </c>
       <c r="H23">
-        <v>9.246227532626746</v>
+        <v>13.53225656196407</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.59310619380439</v>
+        <v>11.60488509406275</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.79764648030056</v>
+        <v>10.66256921058368</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.50908357166745</v>
+        <v>18.53510896564879</v>
       </c>
       <c r="O23">
-        <v>17.08177502623848</v>
+        <v>20.63124680898535</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.54912220491235</v>
+        <v>18.33465269330619</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.350168712419674</v>
+        <v>11.21354708187795</v>
       </c>
       <c r="E24">
-        <v>10.72595601202438</v>
+        <v>16.86474547270481</v>
       </c>
       <c r="F24">
-        <v>21.80562477435821</v>
+        <v>28.50457090817532</v>
       </c>
       <c r="G24">
-        <v>29.47655854994682</v>
+        <v>27.72443927911818</v>
       </c>
       <c r="H24">
-        <v>8.989671814011283</v>
+        <v>13.54787249995843</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.612344113535265</v>
+        <v>11.62721832540669</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.84983288827609</v>
+        <v>10.32562951022359</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.36374293571563</v>
+        <v>18.52964204242338</v>
       </c>
       <c r="O24">
-        <v>16.26272847135476</v>
+        <v>20.57432402965914</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.80455115368336</v>
+        <v>17.81413568840888</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.493486365574344</v>
+        <v>11.276694979134</v>
       </c>
       <c r="E25">
-        <v>10.86614933544382</v>
+        <v>16.93966534177923</v>
       </c>
       <c r="F25">
-        <v>20.76365569274418</v>
+        <v>28.50130183425358</v>
       </c>
       <c r="G25">
-        <v>27.10282434042016</v>
+        <v>27.30246402908497</v>
       </c>
       <c r="H25">
-        <v>8.734085114474629</v>
+        <v>13.57432221797153</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.639136571785873</v>
+        <v>11.65468176295306</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.74296632110033</v>
+        <v>9.950376492431708</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.22439314621939</v>
+        <v>18.53176518126311</v>
       </c>
       <c r="O25">
-        <v>15.39419793550206</v>
+        <v>20.53204213939349</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_251/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_251/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.4275895051743</v>
+        <v>17.42106961226035</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.32734066696509</v>
+        <v>6.606646811683636</v>
       </c>
       <c r="E2">
-        <v>17.00080769389358</v>
+        <v>10.98019975423815</v>
       </c>
       <c r="F2">
-        <v>28.5233174388284</v>
+        <v>20.03468399738599</v>
       </c>
       <c r="G2">
-        <v>27.01840733239952</v>
+        <v>25.30789193687514</v>
       </c>
       <c r="H2">
-        <v>13.60205378025839</v>
+        <v>8.564030937652964</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.6778316495898</v>
+        <v>7.664074983978772</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.665761702194773</v>
+        <v>10.85532330968883</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.54029730951016</v>
+        <v>14.13639194663745</v>
       </c>
       <c r="O2">
-        <v>20.51747094201325</v>
+        <v>14.77120256533102</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.1649787209316</v>
+        <v>16.42383448125948</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11.36427016680427</v>
+        <v>6.688060210773535</v>
       </c>
       <c r="E3">
-        <v>17.04599987502433</v>
+        <v>11.06423191217791</v>
       </c>
       <c r="F3">
-        <v>28.55345043556826</v>
+        <v>19.56647950025696</v>
       </c>
       <c r="G3">
-        <v>26.84349132782589</v>
+        <v>24.06830445720919</v>
       </c>
       <c r="H3">
-        <v>13.62599220362843</v>
+        <v>8.459999575931844</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.69536130478433</v>
+        <v>7.684233288480042</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.46871605199385</v>
+        <v>10.20869705649019</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.5504606241572</v>
+        <v>14.08565369327595</v>
       </c>
       <c r="O3">
-        <v>20.51796135505335</v>
+        <v>14.361372622771</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.00390510434852</v>
+        <v>15.78314147750084</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.38823644595932</v>
+        <v>6.740368379891367</v>
       </c>
       <c r="E4">
-        <v>17.07560895068356</v>
+        <v>11.11914802560455</v>
       </c>
       <c r="F4">
-        <v>28.57944086727698</v>
+        <v>19.29236476899916</v>
       </c>
       <c r="G4">
-        <v>26.74506099223404</v>
+        <v>23.29850160302555</v>
       </c>
       <c r="H4">
-        <v>13.6432250756967</v>
+        <v>8.401598345788134</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.70703718188797</v>
+        <v>7.698219084899573</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.346050066575051</v>
+        <v>9.789631001970092</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.55887279423295</v>
+        <v>14.05881782645092</v>
       </c>
       <c r="O4">
-        <v>20.52338024046288</v>
+        <v>14.11658016700285</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.93838450939826</v>
+        <v>15.515115974277</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.3983284394207</v>
+        <v>6.762266453048881</v>
       </c>
       <c r="E5">
-        <v>17.08814404619137</v>
+        <v>11.14236099842168</v>
       </c>
       <c r="F5">
-        <v>28.59191248382509</v>
+        <v>19.18410853629338</v>
       </c>
       <c r="G5">
-        <v>26.70724565593234</v>
+        <v>22.98309844986158</v>
       </c>
       <c r="H5">
-        <v>13.65088447337963</v>
+        <v>8.379164590561928</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.71202536339589</v>
+        <v>7.704323140035255</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.295699606535855</v>
+        <v>9.613361339578489</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.56284862657058</v>
+        <v>14.04895678758155</v>
       </c>
       <c r="O5">
-        <v>20.52687568823455</v>
+        <v>14.01865943417381</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.92751421565312</v>
+        <v>15.47019827192876</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.40002389272802</v>
+        <v>6.765937734296737</v>
       </c>
       <c r="E6">
-        <v>17.09025386103807</v>
+        <v>11.14626586221736</v>
       </c>
       <c r="F6">
-        <v>28.59409685327237</v>
+        <v>19.16634321326413</v>
       </c>
       <c r="G6">
-        <v>26.70110620556705</v>
+        <v>22.93063859053957</v>
       </c>
       <c r="H6">
-        <v>13.65219475910011</v>
+        <v>8.375521534695327</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.71286756875585</v>
+        <v>7.705361164849971</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.28731879378906</v>
+        <v>9.583761485095785</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.56354194391111</v>
+        <v>14.04738395436503</v>
       </c>
       <c r="O6">
-        <v>20.52753384223137</v>
+        <v>14.00251380379373</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.00302089216504</v>
+        <v>15.77955458499216</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.38837123093514</v>
+        <v>6.740661349681599</v>
       </c>
       <c r="E7">
-        <v>17.07577610213974</v>
+        <v>11.11945770693313</v>
       </c>
       <c r="F7">
-        <v>28.57960145492673</v>
+        <v>19.2908907214788</v>
       </c>
       <c r="G7">
-        <v>26.74454165551445</v>
+        <v>23.29425417122687</v>
       </c>
       <c r="H7">
-        <v>13.64332579511222</v>
+        <v>8.401290286277522</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.70710352140107</v>
+        <v>7.698299767275076</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.345372412969461</v>
+        <v>9.78727595513473</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.55892419350621</v>
+        <v>14.05868050004328</v>
       </c>
       <c r="O7">
-        <v>20.52342216964037</v>
+        <v>14.11525199959406</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.33705093696186</v>
+        <v>17.08322099686874</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.33980640884211</v>
+        <v>6.634235753221677</v>
       </c>
       <c r="E8">
-        <v>17.01600446346682</v>
+        <v>11.00848456624871</v>
       </c>
       <c r="F8">
-        <v>28.532151620213</v>
+        <v>19.87052881558904</v>
       </c>
       <c r="G8">
-        <v>26.9562605300328</v>
+        <v>24.88255542795479</v>
       </c>
       <c r="H8">
-        <v>13.60978144133725</v>
+        <v>8.527018937689663</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.68368687781129</v>
+        <v>7.670691888043504</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.598203666226123</v>
+        <v>10.63696186691133</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.54335187780221</v>
+        <v>14.11799486666407</v>
       </c>
       <c r="O8">
-        <v>20.51657825589448</v>
+        <v>14.6285407724008</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.99016640742034</v>
+        <v>19.40779676981827</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.25478114118827</v>
+        <v>6.44401697534134</v>
       </c>
       <c r="E9">
-        <v>16.91350304279526</v>
+        <v>10.81724095661229</v>
       </c>
       <c r="F9">
-        <v>28.49860848559365</v>
+        <v>21.10897235280223</v>
       </c>
       <c r="G9">
-        <v>27.44060564571211</v>
+        <v>27.91043714285794</v>
       </c>
       <c r="H9">
-        <v>13.56412946549811</v>
+        <v>8.817356198264008</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.64497755375389</v>
+        <v>7.629302944901347</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.07820279194218</v>
+        <v>12.12711794675321</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.52997211758415</v>
+        <v>14.26903875609355</v>
       </c>
       <c r="O9">
-        <v>20.54371878862171</v>
+        <v>15.68446370594219</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.46455649828667</v>
+        <v>20.96778935265561</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.19848627637612</v>
+        <v>6.315657105747934</v>
       </c>
       <c r="E10">
-        <v>16.84708780983672</v>
+        <v>10.6928614635192</v>
       </c>
       <c r="F10">
-        <v>28.51030379400151</v>
+        <v>22.07490094807873</v>
       </c>
       <c r="G10">
-        <v>27.83565611320465</v>
+        <v>30.06294667505395</v>
       </c>
       <c r="H10">
-        <v>13.54287810269518</v>
+        <v>9.057642927796964</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.62089235336695</v>
+        <v>7.606647859036841</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.41809276738021</v>
+        <v>13.11373038222111</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.53049823749163</v>
+        <v>14.40180357704373</v>
       </c>
       <c r="O10">
-        <v>20.58827670625683</v>
+        <v>16.48401472963976</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.67831317720285</v>
+        <v>21.6445520677241</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.17420588765245</v>
+        <v>6.259775267254152</v>
       </c>
       <c r="E11">
-        <v>16.81878874806796</v>
+        <v>10.6397932076799</v>
       </c>
       <c r="F11">
-        <v>28.52350810382923</v>
+        <v>22.52522455186092</v>
       </c>
       <c r="G11">
-        <v>28.02318237321708</v>
+        <v>31.02371663817746</v>
       </c>
       <c r="H11">
-        <v>13.53588003811813</v>
+        <v>9.172826527179712</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.61087212597995</v>
+        <v>7.598020010702065</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.5693406618905</v>
+        <v>13.53906386436136</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.53296260289112</v>
+        <v>14.46705723287506</v>
       </c>
       <c r="O11">
-        <v>20.61385206297208</v>
+        <v>16.85171161404449</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.7588935436062</v>
+        <v>21.89605545982903</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.16520175054263</v>
+        <v>6.238979433958021</v>
       </c>
       <c r="E12">
-        <v>16.80834655694299</v>
+        <v>10.62020421555006</v>
       </c>
       <c r="F12">
-        <v>28.52963955117063</v>
+        <v>22.69721990693288</v>
       </c>
       <c r="G12">
-        <v>28.09525422848051</v>
+        <v>31.38472516211208</v>
       </c>
       <c r="H12">
-        <v>13.53361372548845</v>
+        <v>9.217286820024142</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.60721164577952</v>
+        <v>7.594993674542741</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.62608340214866</v>
+        <v>13.69675702467006</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.53421355650161</v>
+        <v>14.49247476088182</v>
       </c>
       <c r="O12">
-        <v>20.62429484893795</v>
+        <v>16.99143353111706</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.74155642948687</v>
+        <v>21.84210243715667</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.16713249925907</v>
+        <v>6.243441856985461</v>
       </c>
       <c r="E13">
-        <v>16.81058329896128</v>
+        <v>10.6244004861677</v>
       </c>
       <c r="F13">
-        <v>28.52826877155088</v>
+        <v>22.66011389355211</v>
       </c>
       <c r="G13">
-        <v>28.07968617879859</v>
+        <v>31.30710278474199</v>
       </c>
       <c r="H13">
-        <v>13.53408475500343</v>
+        <v>9.207674060239523</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.60799404834154</v>
+        <v>7.595634746383721</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.61388719312334</v>
+        <v>13.66294478452288</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.53393004530544</v>
+        <v>14.48696904460999</v>
       </c>
       <c r="O13">
-        <v>20.62201218679897</v>
+        <v>16.96132171570871</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.68495027407613</v>
+        <v>21.66533922415859</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.17346130161638</v>
+        <v>6.25805702962023</v>
       </c>
       <c r="E14">
-        <v>16.81792417674481</v>
+        <v>10.63817144198612</v>
       </c>
       <c r="F14">
-        <v>28.52398988737556</v>
+        <v>22.53934585568411</v>
       </c>
       <c r="G14">
-        <v>28.02909090516587</v>
+        <v>31.05347419803802</v>
       </c>
       <c r="H14">
-        <v>13.53568589857474</v>
+        <v>9.176467426990552</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.61056829510192</v>
+        <v>7.597766208132308</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.57401983225559</v>
+        <v>13.55210489430291</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.53305916435218</v>
+        <v>14.46913412224547</v>
       </c>
       <c r="O14">
-        <v>20.61469603847116</v>
+        <v>16.8631974041649</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.65022783833053</v>
+        <v>21.55644422781515</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.17736264012</v>
+        <v>6.267056978715564</v>
       </c>
       <c r="E15">
-        <v>16.82245633258778</v>
+        <v>10.64667260459233</v>
       </c>
       <c r="F15">
-        <v>28.52151617987634</v>
+        <v>22.46556017821442</v>
       </c>
       <c r="G15">
-        <v>27.99823590379339</v>
+        <v>30.89774881485329</v>
       </c>
       <c r="H15">
-        <v>13.5367166079549</v>
+        <v>9.157462138478476</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.61216252155191</v>
+        <v>7.599103140502758</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.54952935825072</v>
+        <v>13.48377345313013</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.53256703819739</v>
+        <v>14.45830209360291</v>
       </c>
       <c r="O15">
-        <v>20.6103132310376</v>
+        <v>16.80315391189916</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.45053974264261</v>
+        <v>20.92289548106324</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.2000997276158</v>
+        <v>6.319359985482322</v>
       </c>
       <c r="E16">
-        <v>16.84897563007442</v>
+        <v>10.69640042212748</v>
       </c>
       <c r="F16">
-        <v>28.50959932303736</v>
+        <v>22.04568199250722</v>
       </c>
       <c r="G16">
-        <v>27.82355267315651</v>
+        <v>29.99977215323347</v>
       </c>
       <c r="H16">
-        <v>13.54338914725278</v>
+        <v>9.050233479175491</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.62156598136981</v>
+        <v>7.607245437667887</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.40813646434654</v>
+        <v>13.0854616500867</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.53038177248665</v>
+        <v>14.39763761666303</v>
       </c>
       <c r="O16">
-        <v>20.58671165339164</v>
+        <v>16.46005704049166</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.32746257536861</v>
+        <v>20.52577456354437</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.21438793089684</v>
+        <v>6.352091956122502</v>
       </c>
       <c r="E17">
-        <v>16.86573367127978</v>
+        <v>10.7278076373721</v>
       </c>
       <c r="F17">
-        <v>28.50430660360135</v>
+        <v>21.79082124452297</v>
       </c>
       <c r="G17">
-        <v>27.71834709140562</v>
+        <v>29.44404110323997</v>
       </c>
       <c r="H17">
-        <v>13.54816615261362</v>
+        <v>8.985955867713999</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.62757401990328</v>
+        <v>7.612669950605831</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.32049898686526</v>
+        <v>12.83509800839678</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.52960952885343</v>
+        <v>14.36167261153757</v>
       </c>
       <c r="O17">
-        <v>20.57358848959601</v>
+        <v>16.25052996109566</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.25648333403567</v>
+        <v>20.29426706710349</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.22273120721922</v>
+        <v>6.371154431778551</v>
       </c>
       <c r="E18">
-        <v>16.87555263323329</v>
+        <v>10.74620274697357</v>
       </c>
       <c r="F18">
-        <v>28.50200467026206</v>
+        <v>21.64526543136355</v>
       </c>
       <c r="G18">
-        <v>27.65857529203359</v>
+        <v>29.1226722929342</v>
       </c>
       <c r="H18">
-        <v>13.55116502341684</v>
+        <v>8.949538369382298</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.63111784923968</v>
+        <v>7.615947964648144</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.26977765851051</v>
+        <v>12.6888845806275</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.52937492323099</v>
+        <v>14.34144327865213</v>
       </c>
       <c r="O18">
-        <v>20.56654014840739</v>
+        <v>16.13039449283502</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.23242079874764</v>
+        <v>20.21535281071647</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.22557760145318</v>
+        <v>6.377649051408496</v>
       </c>
       <c r="E19">
-        <v>16.87890814528041</v>
+        <v>10.75248773174432</v>
       </c>
       <c r="F19">
-        <v>28.5013528231508</v>
+        <v>21.59616346665936</v>
       </c>
       <c r="G19">
-        <v>27.63846654303325</v>
+        <v>29.01357161198999</v>
       </c>
       <c r="H19">
-        <v>13.55222354604267</v>
+        <v>8.937303109918368</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.63233289166993</v>
+        <v>7.617084990070726</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.25255174447241</v>
+        <v>12.63899943803551</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.52933154897035</v>
+        <v>14.33467215400167</v>
       </c>
       <c r="O19">
-        <v>20.56423967305969</v>
+        <v>16.08978667403067</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.34058437940667</v>
+        <v>20.56836935394471</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.21285398713978</v>
+        <v>6.348583135735648</v>
       </c>
       <c r="E20">
-        <v>16.86393110936858</v>
+        <v>10.72443006746705</v>
       </c>
       <c r="F20">
-        <v>28.50479321186693</v>
+        <v>21.81784542740401</v>
       </c>
       <c r="G20">
-        <v>27.72947030970801</v>
+        <v>29.50337972371292</v>
       </c>
       <c r="H20">
-        <v>13.54763162789635</v>
+        <v>8.99274107982701</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.62692533409749</v>
+        <v>7.612076155070375</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.32986105313875</v>
+        <v>12.86197844315402</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.52967006161328</v>
+        <v>14.36545380728109</v>
       </c>
       <c r="O20">
-        <v>20.57493378346542</v>
+        <v>16.27279593611476</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.7015873180344</v>
+        <v>21.71738862974894</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.17159721934211</v>
+        <v>6.253754242283301</v>
       </c>
       <c r="E21">
-        <v>16.81576055425536</v>
+        <v>10.63411280944671</v>
       </c>
       <c r="F21">
-        <v>28.5252160221142</v>
+        <v>22.57477929818577</v>
       </c>
       <c r="G21">
-        <v>28.0439237253416</v>
+        <v>31.12804851009499</v>
       </c>
       <c r="H21">
-        <v>13.53520519217154</v>
+        <v>9.185610720154578</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.60980854606621</v>
+        <v>7.597133613609806</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.58574462746939</v>
+        <v>13.58475268722322</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.53330635755903</v>
+        <v>14.4743534050046</v>
       </c>
       <c r="O21">
-        <v>20.61682444209762</v>
+        <v>16.89200642999998</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.93536752237105</v>
+        <v>22.44051646292717</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.14574253965604</v>
+        <v>6.193910616625655</v>
       </c>
       <c r="E22">
-        <v>16.78587516685245</v>
+        <v>10.57804023309394</v>
       </c>
       <c r="F22">
-        <v>28.54515547617995</v>
+        <v>23.07799289371756</v>
       </c>
       <c r="G22">
-        <v>28.25558287057135</v>
+        <v>32.17341807386602</v>
       </c>
       <c r="H22">
-        <v>13.52932013801643</v>
+        <v>9.316573104968638</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.59940225977198</v>
+        <v>7.588771375504585</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.74986147652188</v>
+        <v>14.03748244725575</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.53753389660671</v>
+        <v>14.54965259020872</v>
       </c>
       <c r="O22">
-        <v>20.64861741460547</v>
+        <v>17.29947973970372</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.81081444485923</v>
+        <v>22.05712507995464</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.15944042653338</v>
+        <v>6.225653459699179</v>
       </c>
       <c r="E23">
-        <v>16.80167981610674</v>
+        <v>10.60769623084284</v>
       </c>
       <c r="F23">
-        <v>28.53391133574815</v>
+        <v>22.80867073771603</v>
       </c>
       <c r="G23">
-        <v>28.14207583512299</v>
+        <v>31.61703131799608</v>
       </c>
       <c r="H23">
-        <v>13.53225656196407</v>
+        <v>9.246227532626754</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.60488509406275</v>
+        <v>7.593106193804392</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.66256921058368</v>
+        <v>13.79764648030056</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.53510896564879</v>
+        <v>14.50908357166741</v>
       </c>
       <c r="O23">
-        <v>20.63124680898535</v>
+        <v>17.08177502623849</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.33465269330619</v>
+        <v>20.54912220491233</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.21354708187795</v>
+        <v>6.350168712419675</v>
       </c>
       <c r="E24">
-        <v>16.86474547270481</v>
+        <v>10.72595601202438</v>
       </c>
       <c r="F24">
-        <v>28.50457090817532</v>
+        <v>21.80562477435821</v>
       </c>
       <c r="G24">
-        <v>27.72443927911818</v>
+        <v>29.47655854994677</v>
       </c>
       <c r="H24">
-        <v>13.54787249995843</v>
+        <v>8.989671814011354</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.62721832540669</v>
+        <v>7.612344113535237</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.32562951022359</v>
+        <v>12.8498328882761</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.52964204242338</v>
+        <v>14.36374293571568</v>
       </c>
       <c r="O24">
-        <v>20.57432402965914</v>
+        <v>16.26272847135476</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.81413568840888</v>
+        <v>18.80455115368336</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.276694979134</v>
+        <v>6.493486365574344</v>
       </c>
       <c r="E25">
-        <v>16.93966534177923</v>
+        <v>10.86614933544381</v>
       </c>
       <c r="F25">
-        <v>28.50130183425358</v>
+        <v>20.76365569274418</v>
       </c>
       <c r="G25">
-        <v>27.30246402908497</v>
+        <v>27.10282434042017</v>
       </c>
       <c r="H25">
-        <v>13.57432221797153</v>
+        <v>8.734085114474629</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.65468176295306</v>
+        <v>7.639136571785871</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.950376492431708</v>
+        <v>11.74296632110035</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.53176518126311</v>
+        <v>14.22439314621941</v>
       </c>
       <c r="O25">
-        <v>20.53204213939349</v>
+        <v>15.39419793550206</v>
       </c>
     </row>
   </sheetData>
